--- a/board.xlsx
+++ b/board.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{D7706C50-E700-4C49-9555-A27FF4E8D505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oussema ben youssef\Desktop\test\python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>A</t>
   </si>
@@ -134,9 +138,6 @@
     <t>bp C7</t>
   </si>
   <si>
-    <t xml:space="preserve"> bp D7</t>
-  </si>
-  <si>
     <t>bp E7</t>
   </si>
   <si>
@@ -149,16 +150,112 @@
     <t>bp H7</t>
   </si>
   <si>
-    <t>N/L</t>
-  </si>
-  <si>
-    <t>_._</t>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>__ A5</t>
+  </si>
+  <si>
+    <t>__ A4</t>
+  </si>
+  <si>
+    <t>__ A3</t>
+  </si>
+  <si>
+    <t>__ B3</t>
+  </si>
+  <si>
+    <t>__ B4</t>
+  </si>
+  <si>
+    <t>__ B5</t>
+  </si>
+  <si>
+    <t>__ B6</t>
+  </si>
+  <si>
+    <t>__ C6</t>
+  </si>
+  <si>
+    <t>__ C5</t>
+  </si>
+  <si>
+    <t>__ C4</t>
+  </si>
+  <si>
+    <t>__ C3</t>
+  </si>
+  <si>
+    <t>__ D3</t>
+  </si>
+  <si>
+    <t>__ D4</t>
+  </si>
+  <si>
+    <t>__ D5</t>
+  </si>
+  <si>
+    <t>__ D6</t>
+  </si>
+  <si>
+    <t>__ E6</t>
+  </si>
+  <si>
+    <t>__ E5</t>
+  </si>
+  <si>
+    <t>__ E4</t>
+  </si>
+  <si>
+    <t>__ E3</t>
+  </si>
+  <si>
+    <t>__ F3</t>
+  </si>
+  <si>
+    <t>__ F4</t>
+  </si>
+  <si>
+    <t>__ F5</t>
+  </si>
+  <si>
+    <t>__ F6</t>
+  </si>
+  <si>
+    <t>__ G6</t>
+  </si>
+  <si>
+    <t>__ H6</t>
+  </si>
+  <si>
+    <t>__ H5</t>
+  </si>
+  <si>
+    <t>__ H4</t>
+  </si>
+  <si>
+    <t>__ H3</t>
+  </si>
+  <si>
+    <t>__ G3</t>
+  </si>
+  <si>
+    <t>__ G4</t>
+  </si>
+  <si>
+    <t>__ G5</t>
+  </si>
+  <si>
+    <t>bp D7</t>
+  </si>
+  <si>
+    <t>__ A6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,18 +600,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D94F6F8-7AC3-7A47-94E2-3A48CED87D88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -541,7 +638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8</v>
       </c>
@@ -570,7 +667,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -584,80 +681,80 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>37</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>38</v>
       </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -665,57 +762,57 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -744,7 +841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
